--- a/projects/project-3/assignment/src/data/ies-axioms.xlsx
+++ b/projects/project-3/assignment/src/data/ies-axioms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1931"/>
+  <dimension ref="A1:C1930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28054,9 +28054,7 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Comment: A temporal state of an Element
-Note: IES requires that any State must be related to its whole-life Element. In some cases, the identity of the whole-life element may be unknown (or of unknown type) but a whole-life element must still be created and related to the State.
-Note: When Events are decomposed into temporal parts, those parts are often Events themselves. The exception is when the temporal part is arbitrary (e.g. the 11th second of a meeting) when a State should be used. These are rare though.</t>
+          <t>Comment: A temporal state of an Element</t>
         </is>
       </c>
     </row>
@@ -28131,17 +28129,17 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#State</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#StoreCard</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Store Card</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Element</t>
+          <t xml:space="preserve">Comment: A PaymentArtefact issued by a retail Organisation that can only be used to pay for items supplied by that Organisation. </t>
         </is>
       </c>
     </row>
@@ -28158,7 +28156,7 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: A PaymentArtefact issued by a retail Organisation that can only be used to pay for items supplied by that Organisation. </t>
+          <t>Identifier: {686293F8-123B-478f-9A67-A6074937B528}</t>
         </is>
       </c>
     </row>
@@ -28175,24 +28173,24 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Identifier: {686293F8-123B-478f-9A67-A6074937B528}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PaymentArtefact</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#StoreCard</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Stuff</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Store Card</t>
+          <t>Stuff</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PaymentArtefact</t>
+          <t>Comment: An element that is highly dissective or generally uncountable. For example, sand, water, gas and coffee.</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28207,7 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Comment: An element that is highly dissective or generally uncountable. For example, sand, water, gas and coffee.</t>
+          <t>Identifier: {CC9E60AC-B3C8-4c9b-B657-2734538AE2B9}</t>
         </is>
       </c>
     </row>
@@ -28226,24 +28224,24 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Identifier: {CC9E60AC-B3C8-4c9b-B657-2734538AE2B9}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Element</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Stuff</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfInterest</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Stuff</t>
+          <t>Subject Of Interest</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Element</t>
+          <t>Comment: A State during which an Element is of interest to an investigation</t>
         </is>
       </c>
     </row>
@@ -28260,7 +28258,7 @@
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Comment: A State during which an Element is of interest to an investigation</t>
+          <t>Identifier: {BFFBC847-AD87-458e-9A86-690D659EB48F}</t>
         </is>
       </c>
     </row>
@@ -28277,39 +28275,22 @@
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Identifier: {BFFBC847-AD87-458e-9A86-690D659EB48F}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfInterest</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfOperation</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Subject Of Interest</t>
+          <t>Subject Of Operation</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfOperation</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>Subject Of Operation</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
         <is>
           <t>Comment: An EventParticipant where an Entity is the subject of an OperationalEvent
 Examples:
@@ -28319,6 +28300,23 @@
         </is>
       </c>
     </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfOperation</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Subject Of Operation</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Identifier: {11F2A275-650F-407d-8E86-F99DDEF4AAAF}</t>
+        </is>
+      </c>
+    </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
@@ -28332,24 +28330,24 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Identifier: {11F2A275-650F-407d-8E86-F99DDEF4AAAF}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#SubjectOfOperation</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Summit</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>Subject Of Operation</t>
+          <t>Summit</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: A PoliticalEvent where senior leaders assemble to discuss and agree policy or treaties</t>
         </is>
       </c>
     </row>
@@ -28366,7 +28364,7 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Comment: A PoliticalEvent where senior leaders assemble to discuss and agree policy or treaties</t>
+          <t>Identifier: {78D65599-BCBB-491a-8C34-75B9F7AB60D5}</t>
         </is>
       </c>
     </row>
@@ -28383,24 +28381,24 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Identifier: {78D65599-BCBB-491a-8C34-75B9F7AB60D5}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalEvent</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Summit</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Supplier</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Summit</t>
+          <t>Supplier</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalEvent</t>
+          <t>Comment: An EventParticipant where a ResponsibleActor participates in a TradeEvent as a supplier</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28415,7 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant where a ResponsibleActor participates in a TradeEvent as a supplier</t>
+          <t>Identifier: {E4D44720-DBEE-434e-A61E-35FE8B66A4BE}</t>
         </is>
       </c>
     </row>
@@ -28434,39 +28432,22 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Identifier: {E4D44720-DBEE-434e-A61E-35FE8B66A4BE}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Supplier</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Surname</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>Supplier</t>
+          <t>Surname</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Surname</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>Surname</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
         <is>
           <t>Comment: A PersonName that is their inherited or married name
 Note:
@@ -28474,6 +28455,23 @@
         </is>
       </c>
     </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#Surname</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Identifier: {B5A0C08A-39B3-4bd1-9D19-CE87E0F7DEBB}</t>
+        </is>
+      </c>
+    </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
@@ -28487,24 +28485,24 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Identifier: {B5A0C08A-39B3-4bd1-9D19-CE87E0F7DEBB}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonName</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Surname</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Surveillance</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Surname</t>
+          <t>Surveillance</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonName</t>
+          <t>Comment: An IntelligenceOperation that involves the continued observation of a Person or Location</t>
         </is>
       </c>
     </row>
@@ -28521,7 +28519,7 @@
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Comment: An IntelligenceOperation that involves the continued observation of a Person or Location</t>
+          <t>Identifier: {AD0F575E-5C28-4594-B346-50E9F22C2A8E}</t>
         </is>
       </c>
     </row>
@@ -28538,24 +28536,24 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Identifier: {AD0F575E-5C28-4594-B346-50E9F22C2A8E}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IntelligenceOperation</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Surveillance</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#SurveillanceWarrant</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Surveillance</t>
+          <t>Surveillance Warrant</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IntelligenceOperation</t>
+          <t>Comment: Relates a Surveillance Event to a Document that is the warrant for the Surveillance</t>
         </is>
       </c>
     </row>
@@ -28572,7 +28570,7 @@
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Comment: Relates a Surveillance Event to a Document that is the warrant for the Surveillance</t>
+          <t>Identifier: {A86EC717-55AF-456c-BEC4-E1BA295D0227}</t>
         </is>
       </c>
     </row>
@@ -28589,24 +28587,24 @@
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Identifier: {A86EC717-55AF-456c-BEC4-E1BA295D0227}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#SurveillanceWarrant</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#System</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Surveillance Warrant</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: An Device  comprising software and hardware brought together for a purpose. The Devices may or may not be removable / replaceable</t>
         </is>
       </c>
     </row>
@@ -28623,7 +28621,7 @@
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Comment: An Device  comprising software and hardware brought together for a purpose. The Devices may or may not be removable / replaceable</t>
+          <t>Identifier: {F682A265-1AFE-4287-A9CD-0D4C83F54C52}</t>
         </is>
       </c>
     </row>
@@ -28640,7 +28638,7 @@
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Identifier: {F682A265-1AFE-4287-A9CD-0D4C83F54C52}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#originatingSystem</t>
         </is>
       </c>
     </row>
@@ -28657,7 +28655,7 @@
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#originatingSystem</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#schemeMasteredIn</t>
         </is>
       </c>
     </row>
@@ -28674,7 +28672,7 @@
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#schemeMasteredIn</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Device</t>
         </is>
       </c>
     </row>
@@ -28691,24 +28689,24 @@
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Device</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#SystemState</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#System</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#SystemState</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>System State</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#SystemState</t>
+          <t>Comment: A temporal state of a System</t>
         </is>
       </c>
     </row>
@@ -28725,7 +28723,7 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Comment: A temporal state of a System</t>
+          <t>Identifier: {056DDAD3-9315-48a8-8598-3DD4F783C5CF}</t>
         </is>
       </c>
     </row>
@@ -28742,24 +28740,25 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Identifier: {056DDAD3-9315-48a8-8598-3DD4F783C5CF}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#SystemState</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TOID</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>System State</t>
+          <t>TOID</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
+          <t>Comment: TOIDs (TOpographic IDentifiers) are unique and persistent identifiers created and managed by Ordnance Survey Great Britain to identify topographic objects in OS datasets.
+Example: the TOID for the Tower of London is osgb1000006032892.</t>
         </is>
       </c>
     </row>
@@ -28776,8 +28775,7 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Comment: TOIDs (TOpographic IDentifiers) are unique and persistent identifiers created and managed by Ordnance Survey Great Britain to identify topographic objects in OS datasets.
-Example: the TOID for the Tower of London is osgb1000006032892.</t>
+          <t>Identifier: {79D9049D-E63F-4c94-B348-49506A75B9F8}</t>
         </is>
       </c>
     </row>
@@ -28794,24 +28792,24 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Identifier: {79D9049D-E63F-4c94-B348-49506A75B9F8}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TOID</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TargetLocation</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>TOID</t>
+          <t>Target Location</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
+          <t>Comment: Relates an MilitaryAttack to the location specified for the attack</t>
         </is>
       </c>
     </row>
@@ -28828,7 +28826,7 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Comment: Relates an MilitaryAttack to the location specified for the attack</t>
+          <t>Identifier: {9BEF1C80-3823-4611-9349-AA1E11E41BE7}</t>
         </is>
       </c>
     </row>
@@ -28845,24 +28843,24 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Identifier: {9BEF1C80-3823-4611-9349-AA1E11E41BE7}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TargetLocation</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Team</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Target Location</t>
+          <t>Team</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: An Organisation formed around a particular pursuit or task</t>
         </is>
       </c>
     </row>
@@ -28879,7 +28877,7 @@
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Comment: An Organisation formed around a particular pursuit or task</t>
+          <t>Identifier: {7B20EC37-6D66-4cd9-97DF-2A30B324C421}</t>
         </is>
       </c>
     </row>
@@ -28896,24 +28894,24 @@
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Identifier: {7B20EC37-6D66-4cd9-97DF-2A30B324C421}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Organisation</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Team</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TeleConference</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>Tele Conference</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Organisation</t>
+          <t>Comment: An InteractiveCommunication where 2 or more parties communicate using audio</t>
         </is>
       </c>
     </row>
@@ -28930,7 +28928,7 @@
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Comment: An InteractiveCommunication where 2 or more parties communicate using audio</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#dialInNumber</t>
         </is>
       </c>
     </row>
@@ -28947,7 +28945,7 @@
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#dialInNumber</t>
+          <t>Identifier: {6EAC8930-3D16-4e44-9706-989BDF6564A5}</t>
         </is>
       </c>
     </row>
@@ -28964,24 +28962,24 @@
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Identifier: {6EAC8930-3D16-4e44-9706-989BDF6564A5}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#InteractiveCommunication</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TeleConference</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneAccount</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Tele Conference</t>
+          <t>Telephone Account</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#InteractiveCommunication</t>
+          <t>Comment: A CommunicationsAccount that is used to administer the use of one or more telephone numbers.</t>
         </is>
       </c>
     </row>
@@ -28998,7 +28996,7 @@
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Comment: A CommunicationsAccount that is used to administer the use of one or more telephone numbers.</t>
+          <t>Identifier: {593AE684-C2E9-4e40-A7FD-549BFA64900D}</t>
         </is>
       </c>
     </row>
@@ -29015,24 +29013,24 @@
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Identifier: {593AE684-C2E9-4e40-A7FD-549BFA64900D}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsAccount</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneAccount</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneCountryCode</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Telephone Account</t>
+          <t>Telephone Country Code</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsAccount</t>
+          <t>Comment: The dialing code for a country as specified by the ITU</t>
         </is>
       </c>
     </row>
@@ -29049,7 +29047,7 @@
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Comment: The dialing code for a country as specified by the ITU</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#countryUsingDialCode</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29064,7 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#countryUsingDialCode</t>
+          <t>Identifier: {79C84EC1-83EC-45a8-A3CE-F88CFFBF9434}</t>
         </is>
       </c>
     </row>
@@ -29083,24 +29081,24 @@
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>Identifier: {79C84EC1-83EC-45a8-A3CE-F88CFFBF9434}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifier</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneCountryCode</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneNumber</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Telephone Country Code</t>
+          <t>Telephone Number</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifier</t>
+          <t>Comment: A CommunicationsIdentifier that enables calls to be directed to particular handset</t>
         </is>
       </c>
     </row>
@@ -29117,7 +29115,7 @@
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Comment: A CommunicationsIdentifier that enables calls to be directed to particular handset</t>
+          <t>Identifier: {168D7B01-CD70-4f83-A414-19B6ABEB961C}</t>
         </is>
       </c>
     </row>
@@ -29134,24 +29132,24 @@
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Identifier: {168D7B01-CD70-4f83-A414-19B6ABEB961C}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifier</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneNumber</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneNumberRange</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Telephone Number</t>
+          <t>Telephone Number Range</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifier</t>
+          <t>Comment: A CommunicationsIdentifierRange of TelehoneNumbers</t>
         </is>
       </c>
     </row>
@@ -29168,7 +29166,7 @@
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Comment: A CommunicationsIdentifierRange of TelehoneNumbers</t>
+          <t>Identifier: {007F88AD-9CDF-4aa1-BE73-18C688DA8C05}</t>
         </is>
       </c>
     </row>
@@ -29185,24 +29183,24 @@
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Identifier: {007F88AD-9CDF-4aa1-BE73-18C688DA8C05}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifierRange</t>
         </is>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TelephoneNumberRange</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Temperature</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Telephone Number Range</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CommunicationsIdentifierRange</t>
+          <t>Comment: The Measure of the thermodynamic temperature of an Element</t>
         </is>
       </c>
     </row>
@@ -29219,7 +29217,7 @@
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>Comment: The Measure of the thermodynamic temperature of an Element</t>
+          <t>Identifier: {3FEB0BB0-F127-431a-B117-CC986B11D61A}</t>
         </is>
       </c>
     </row>
@@ -29236,24 +29234,25 @@
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>Identifier: {3FEB0BB0-F127-431a-B117-CC986B11D61A}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasure</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Temperature</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Tendency</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Tendency</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasure</t>
+          <t>Comment: A DispositionalClass where all the instances share the same tendency
+Example: People who tend to violence</t>
         </is>
       </c>
     </row>
@@ -29270,8 +29269,7 @@
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>Comment: A DispositionalClass where all the instances share the same tendency
-Example: People who tend to violence</t>
+          <t>Identifier: {2B451601-EC1D-4bd4-A782-6E0B7E0D416D}</t>
         </is>
       </c>
     </row>
@@ -29288,24 +29286,24 @@
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>Identifier: {2B451601-EC1D-4bd4-A782-6E0B7E0D416D}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#DispositionalClass</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Tendency</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TerrorAttack</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Tendency</t>
+          <t>Terror Attack</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#DispositionalClass</t>
+          <t>Comment: A CriminalActivity that is politically motivated and designed to cause terror</t>
         </is>
       </c>
     </row>
@@ -29322,7 +29320,7 @@
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>Comment: A CriminalActivity that is politically motivated and designed to cause terror</t>
+          <t>Identifier: {F8454637-80DD-44a7-AD91-6DECE44F0171}</t>
         </is>
       </c>
     </row>
@@ -29339,24 +29337,25 @@
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>Identifier: {F8454637-80DD-44a7-AD91-6DECE44F0171}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CriminalActivity</t>
         </is>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TerrorAttack</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TerroristOrganisation</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>Terror Attack</t>
+          <t>Terrorist Organisation</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#CriminalActivity</t>
+          <t xml:space="preserve">Comment: An OrganisationState that is assessed to be conducting acts of terror to achieve a political or religious goal.
+</t>
         </is>
       </c>
     </row>
@@ -29373,8 +29372,7 @@
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: An OrganisationState that is assessed to be conducting acts of terror to achieve a political or religious goal.
-</t>
+          <t>Identifier: {6467A4EF-46BA-401c-A5C7-668BAFB6E228}</t>
         </is>
       </c>
     </row>
@@ -29391,24 +29389,24 @@
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>Identifier: {6467A4EF-46BA-401c-A5C7-668BAFB6E228}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OrganisationState</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TerroristOrganisation</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TheatreTicket</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Terrorist Organisation</t>
+          <t>Theatre Ticket</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OrganisationState</t>
+          <t>Comment: An EntertainmentTicket for a theatre show</t>
         </is>
       </c>
     </row>
@@ -29425,7 +29423,7 @@
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>Comment: An EntertainmentTicket for a theatre show</t>
+          <t>Identifier: {5CD50268-582A-426b-B4CC-F6EE308B84A3}</t>
         </is>
       </c>
     </row>
@@ -29442,39 +29440,22 @@
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>Identifier: {5CD50268-582A-426b-B4CC-F6EE308B84A3}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EntertainmentTicket</t>
         </is>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TheatreTicket</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Thing</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Theatre Ticket</t>
+          <t>Thing</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EntertainmentTicket</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Thing</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>Thing</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
         <is>
           <t xml:space="preserve">Comment: A rdfs:Resource which is a real or possible world 'thing'.
 Thing and its immediate subclasses are too broad a set of concepts to ever need to instantiate directly.
@@ -29485,6 +29466,23 @@
         </is>
       </c>
     </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#Thing</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>Thing</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#attribute</t>
+        </is>
+      </c>
+    </row>
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
@@ -29498,7 +29496,7 @@
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#attribute</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#documentedBy</t>
         </is>
       </c>
     </row>
@@ -29515,7 +29513,7 @@
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#documentedBy</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasName</t>
         </is>
       </c>
     </row>
@@ -29532,7 +29530,7 @@
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasName</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#inGroup</t>
         </is>
       </c>
     </row>
@@ -29549,7 +29547,7 @@
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#inGroup</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isIdentifiedBy</t>
         </is>
       </c>
     </row>
@@ -29566,7 +29564,7 @@
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isIdentifiedBy</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isPrimaryForOrganisation</t>
         </is>
       </c>
     </row>
@@ -29583,7 +29581,7 @@
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isPrimaryForOrganisation</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isRepresentedAs</t>
         </is>
       </c>
     </row>
@@ -29600,7 +29598,7 @@
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isRepresentedAs</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#relationship</t>
         </is>
       </c>
     </row>
@@ -29617,7 +29615,7 @@
       </c>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#relationship</t>
+          <t>Identifier: {485CBF1A-04FF-4741-8471-46A03D28C406}</t>
         </is>
       </c>
     </row>
@@ -29634,7 +29632,7 @@
       </c>
       <c r="C1705" t="inlineStr">
         <is>
-          <t>Identifier: {485CBF1A-04FF-4741-8471-46A03D28C406}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#hasTheme</t>
         </is>
       </c>
     </row>
@@ -29651,7 +29649,7 @@
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#hasTheme</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#influencedBy</t>
         </is>
       </c>
     </row>
@@ -29668,7 +29666,7 @@
       </c>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#influencedBy</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#interestedIn</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29683,7 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#interestedIn</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#relationship</t>
         </is>
       </c>
     </row>
@@ -29702,24 +29700,24 @@
       </c>
       <c r="C1709" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#relationship</t>
+          <t>SubClassOf: http://www.w3.org/2000/01/rdf-schema#Resource</t>
         </is>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Thing</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Ticket</t>
         </is>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Thing</t>
+          <t>Ticket</t>
         </is>
       </c>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>SubClassOf: http://www.w3.org/2000/01/rdf-schema#Resource</t>
+          <t>Comment: Documented authority (paid-for or otherwise) entitling the bearer to some specified activity.</t>
         </is>
       </c>
     </row>
@@ -29736,7 +29734,7 @@
       </c>
       <c r="C1711" t="inlineStr">
         <is>
-          <t>Comment: Documented authority (paid-for or otherwise) entitling the bearer to some specified activity.</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#allocatedSeatNumber</t>
         </is>
       </c>
     </row>
@@ -29753,7 +29751,7 @@
       </c>
       <c r="C1712" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#allocatedSeatNumber</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#associatedPersonName</t>
         </is>
       </c>
     </row>
@@ -29770,7 +29768,7 @@
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#associatedPersonName</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#authorisesAccessTo</t>
         </is>
       </c>
     </row>
@@ -29787,7 +29785,7 @@
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#authorisesAccessTo</t>
+          <t>Identifier: {0BC61540-2AFB-42e6-A845-79771EE0268D}</t>
         </is>
       </c>
     </row>
@@ -29804,24 +29802,25 @@
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>Identifier: {0BC61540-2AFB-42e6-A845-79771EE0268D}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IndividualDocument</t>
         </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Ticket</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TicketUsedInCheckIn</t>
         </is>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Ticket</t>
+          <t>Ticket Used In Check In</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IndividualDocument</t>
+          <t>Comment: An EventParticipant where a Ricket is used in a CheckIn event
+e.g. a London Underground ticket being used at a barrier, or a concert ticket being scanned on arrival at the venue</t>
         </is>
       </c>
     </row>
@@ -29838,8 +29837,7 @@
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant where a Ricket is used in a CheckIn event
-e.g. a London Underground ticket being used at a barrier, or a concert ticket being scanned on arrival at the venue</t>
+          <t>Identifier: {92470C59-DFA6-47f7-A525-50CDABC8F852}</t>
         </is>
       </c>
     </row>
@@ -29856,39 +29854,22 @@
       </c>
       <c r="C1718" t="inlineStr">
         <is>
-          <t>Identifier: {92470C59-DFA6-47f7-A525-50CDABC8F852}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TicketUsedInCheckIn</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
         </is>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Ticket Used In Check In</t>
+          <t>Time Bounded Class</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>Time Bounded Class</t>
-        </is>
-      </c>
-      <c r="C1720" t="inlineStr">
         <is>
           <t xml:space="preserve">Comment: A ClassOfElement whose instances all begin and end within the bounds specified for the Class. In other words, a class that is defined by the temporal extent of its members.
 Note, if either the begin or end bound are missing, it is taken to be indeterminate. For example, if the begin bound is 1st Jan 2018, the class has instances that all started after that date, and their end is irrelevant.
@@ -29897,6 +29878,23 @@
         </is>
       </c>
     </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>Time Bounded Class</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#beginBoundOfClass</t>
+        </is>
+      </c>
+    </row>
     <row r="1721">
       <c r="A1721" t="inlineStr">
         <is>
@@ -29910,7 +29908,7 @@
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#beginBoundOfClass</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#endBoundOfClass</t>
         </is>
       </c>
     </row>
@@ -29927,7 +29925,7 @@
       </c>
       <c r="C1722" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#endBoundOfClass</t>
+          <t>Identifier: {E7A659A5-9059-4ea5-8FAB-8A29AFC47D9A}</t>
         </is>
       </c>
     </row>
@@ -29944,24 +29942,24 @@
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t>Identifier: {E7A659A5-9059-4ea5-8FAB-8A29AFC47D9A}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ClassOfElement</t>
         </is>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Title</t>
         </is>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Time Bounded Class</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="C1724" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ClassOfElement</t>
+          <t>Comment: The title of the respective document.</t>
         </is>
       </c>
     </row>
@@ -29978,7 +29976,7 @@
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>Comment: The title of the respective document.</t>
+          <t>Identifier: {30F5944F-75C3-4f12-A315-4E94ABCA809E}</t>
         </is>
       </c>
     </row>
@@ -29995,24 +29993,24 @@
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>Identifier: {30F5944F-75C3-4f12-A315-4E94ABCA809E}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Name</t>
         </is>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Title</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TradeAgreement</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Trade Agreement</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Name</t>
+          <t xml:space="preserve">Comment: A PoliticalAgreement that sets tariffs and standards for trade between nations. </t>
         </is>
       </c>
     </row>
@@ -30029,7 +30027,7 @@
       </c>
       <c r="C1728" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: A PoliticalAgreement that sets tariffs and standards for trade between nations. </t>
+          <t>Identifier: {54A4E900-7E8E-49fd-91F4-23ADDDF2DA60}</t>
         </is>
       </c>
     </row>
@@ -30046,24 +30044,24 @@
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t>Identifier: {54A4E900-7E8E-49fd-91F4-23ADDDF2DA60}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalAgreement</t>
         </is>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TradeAgreement</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TradeEvent</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Trade Agreement</t>
+          <t>Trade Event</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalAgreement</t>
+          <t>Comment: An Event where something is offered, bought or exchanged</t>
         </is>
       </c>
     </row>
@@ -30080,7 +30078,7 @@
       </c>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>Comment: An Event where something is offered, bought or exchanged</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#tradedItemType</t>
         </is>
       </c>
     </row>
@@ -30097,7 +30095,7 @@
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#tradedItemType</t>
+          <t>Identifier: {CA86862B-DA7E-487c-907B-26FA5D0564CD}</t>
         </is>
       </c>
     </row>
@@ -30114,24 +30112,25 @@
       </c>
       <c r="C1733" t="inlineStr">
         <is>
-          <t>Identifier: {CA86862B-DA7E-487c-907B-26FA5D0564CD}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TradeEvent</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TradedAsset</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Trade Event</t>
+          <t>Traded Asset</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Event</t>
+          <t>Comment: An EventParticipant where an Asset is participant in a TradeEvent
+This could be a specific Asset (e.g. serial numbered item) being offered for sale (as opposed to a type of Asset) or an Asset being delivered, withdrawn from sale, etc.</t>
         </is>
       </c>
     </row>
@@ -30148,8 +30147,7 @@
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant where an Asset is participant in a TradeEvent
-This could be a specific Asset (e.g. serial numbered item) being offered for sale (as opposed to a type of Asset) or an Asset being delivered, withdrawn from sale, etc.</t>
+          <t>Identifier: {57ADBC97-C089-4d1a-A334-A9C44EAEC38A}</t>
         </is>
       </c>
     </row>
@@ -30166,24 +30164,24 @@
       </c>
       <c r="C1736" t="inlineStr">
         <is>
-          <t>Identifier: {57ADBC97-C089-4d1a-A334-A9C44EAEC38A}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TradedAsset</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TrainTicket</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Traded Asset</t>
+          <t>Train Ticket</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: A Ticket that is used to travel by rail</t>
         </is>
       </c>
     </row>
@@ -30200,7 +30198,7 @@
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>Comment: A Ticket that is used to travel by rail</t>
+          <t>Identifier: {A8715447-3583-45d0-9550-625CF96B3E2E}</t>
         </is>
       </c>
     </row>
@@ -30217,24 +30215,24 @@
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>Identifier: {A8715447-3583-45d0-9550-625CF96B3E2E}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TravelTicket</t>
         </is>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TrainTicket</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TrainTravel</t>
         </is>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Train Ticket</t>
+          <t>Train Travel</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TravelTicket</t>
+          <t>Comment: A TravelService by rail</t>
         </is>
       </c>
     </row>
@@ -30251,7 +30249,7 @@
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t>Comment: A TravelService by rail</t>
+          <t>Identifier: {F2D6CFE4-BCE9-4bce-ADB0-075656038A55}</t>
         </is>
       </c>
     </row>
@@ -30268,24 +30266,24 @@
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>Identifier: {F2D6CFE4-BCE9-4bce-ADB0-075656038A55}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Transit</t>
         </is>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TrainTravel</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Transit</t>
         </is>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>Train Travel</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Transit</t>
+          <t>Comment: A Movement that is an individual transportation - e.g. an individual flight, sailing, etc.</t>
         </is>
       </c>
     </row>
@@ -30302,7 +30300,7 @@
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>Comment: A Movement that is an individual transportation - e.g. an individual flight, sailing, etc.</t>
+          <t>Identifier: {7693D2C9-0F06-4005-BB8D-B5B572B2281A}</t>
         </is>
       </c>
     </row>
@@ -30319,7 +30317,7 @@
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>Identifier: {7693D2C9-0F06-4005-BB8D-B5B572B2281A}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#charters</t>
         </is>
       </c>
     </row>
@@ -30336,24 +30334,25 @@
       </c>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#charters</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Movement</t>
         </is>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Transit</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelBooking</t>
         </is>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Travel Booking</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Movement</t>
+          <t>Comment: The Purchase of planned travel arrangements.
+3. Travel Bookings may include bookings for Flights, Ferry Crossings, Train Journeys (i.e Travel Services), and also Hotels, Hire Cars etc. when these have been modelled. These will be included on the booking as relationships to the appropriate other entities.</t>
         </is>
       </c>
     </row>
@@ -30370,8 +30369,7 @@
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>Comment: The Purchase of planned travel arrangements.
-3. Travel Bookings may include bookings for Flights, Ferry Crossings, Train Journeys (i.e Travel Services), and also Hotels, Hire Cars etc. when these have been modelled. These will be included on the booking as relationships to the appropriate other entities.</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#contactDetailsOnBooking</t>
         </is>
       </c>
     </row>
@@ -30388,7 +30386,7 @@
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#contactDetailsOnBooking</t>
+          <t>Identifier: {76DC9A0C-F6E8-4ff4-ADD6-072DC1EBE3AB}</t>
         </is>
       </c>
     </row>
@@ -30405,24 +30403,24 @@
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t>Identifier: {76DC9A0C-F6E8-4ff4-ADD6-072DC1EBE3AB}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Purchase</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelBooking</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelCard</t>
         </is>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Travel Booking</t>
+          <t>Travel Card</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Purchase</t>
+          <t>Comment: A PaymentArtefact that permits travel on public transport</t>
         </is>
       </c>
     </row>
@@ -30439,7 +30437,7 @@
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>Comment: A PaymentArtefact that permits travel on public transport</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#areaOfCoverage</t>
         </is>
       </c>
     </row>
@@ -30456,7 +30454,7 @@
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#areaOfCoverage</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasCountryOfIssue</t>
         </is>
       </c>
     </row>
@@ -30473,7 +30471,7 @@
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasCountryOfIssue</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasStatedAddress</t>
         </is>
       </c>
     </row>
@@ -30490,7 +30488,7 @@
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasStatedAddress</t>
+          <t>Identifier: {E1D8A09D-C260-4dd8-B6FF-C2FA8968A00B}</t>
         </is>
       </c>
     </row>
@@ -30507,24 +30505,25 @@
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>Identifier: {E1D8A09D-C260-4dd8-B6FF-C2FA8968A00B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PaymentArtefact</t>
         </is>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelCard</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelLeg</t>
         </is>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>Travel Card</t>
+          <t>Travel Leg</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PaymentArtefact</t>
+          <t>Comment: An EventParticipant in which a Entity travels. That travel may be part of a Journey.
+The TravelLeg may be part of a Journey (i.e. the Journey has one of more legs).</t>
         </is>
       </c>
     </row>
@@ -30541,8 +30540,7 @@
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant in which a Entity travels. That travel may be part of a Journey.
-The TravelLeg may be part of a Journey (i.e. the Journey has one of more legs).</t>
+          <t>Identifier: {55384377-146A-47c9-8706-18A1343A219C}</t>
         </is>
       </c>
     </row>
@@ -30559,24 +30557,24 @@
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>Identifier: {55384377-146A-47c9-8706-18A1343A219C}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Moving</t>
         </is>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelLeg</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelReservation</t>
         </is>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Travel Leg</t>
+          <t>Travel Reservation</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Moving</t>
+          <t>Comment: A TradedAsset where the asset is a Reservation</t>
         </is>
       </c>
     </row>
@@ -30593,7 +30591,7 @@
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Comment: A TradedAsset where the asset is a Reservation</t>
+          <t>Identifier: {8B290363-239E-415e-9F2D-8267D1BA2ECB}</t>
         </is>
       </c>
     </row>
@@ -30610,24 +30608,24 @@
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>Identifier: {8B290363-239E-415e-9F2D-8267D1BA2ECB}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TradedAsset</t>
         </is>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelReservation</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelService</t>
         </is>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>Travel Reservation</t>
+          <t>Travel Service</t>
         </is>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TradedAsset</t>
+          <t>Comment: A transportation service, often provided as a public service – e.g. a scheduled flight, rail journey, ferry crossing, etc.</t>
         </is>
       </c>
     </row>
@@ -30644,7 +30642,7 @@
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>Comment: A transportation service, often provided as a public service – e.g. a scheduled flight, rail journey, ferry crossing, etc.</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#carrierService</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30659,7 @@
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#carrierService</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledArrivalPort</t>
         </is>
       </c>
     </row>
@@ -30678,7 +30676,7 @@
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledArrivalPort</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledArrivalTime</t>
         </is>
       </c>
     </row>
@@ -30695,7 +30693,7 @@
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledArrivalTime</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledDeparturePort</t>
         </is>
       </c>
     </row>
@@ -30712,7 +30710,7 @@
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledDeparturePort</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledDepartureTime</t>
         </is>
       </c>
     </row>
@@ -30729,7 +30727,7 @@
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#scheduledDepartureTime</t>
+          <t>Identifier: {3D0FC30A-CF82-44f2-970E-BFD04EADBA74}</t>
         </is>
       </c>
     </row>
@@ -30746,39 +30744,22 @@
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>Identifier: {3D0FC30A-CF82-44f2-970E-BFD04EADBA74}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Event</t>
         </is>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelService</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelServiceIdentifier</t>
         </is>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Travel Service</t>
+          <t>Travel Service Identifier</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="1772">
-      <c r="A1772" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelServiceIdentifier</t>
-        </is>
-      </c>
-      <c r="B1772" t="inlineStr">
-        <is>
-          <t>Travel Service Identifier</t>
-        </is>
-      </c>
-      <c r="C1772" t="inlineStr">
         <is>
           <t>Comment: The Identifier for the respective Travel Service – this is how humans would usually refer to the service
 Note however that often this identifier does not, on its own, uniquely identify any given instance of a travel service – e.g. Flight BA0010 is reused on a daily basis to refer to the flight between London Heathrow and Los Angeles. As such, to uniquely identify any given instance of a Travel Service you would need to combine it with other attributes – typically departure date/time.
@@ -30787,6 +30768,23 @@
         </is>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelServiceIdentifier</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>Travel Service Identifier</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>Identifier: {680FD822-C1F6-4d09-94D5-5D586C947DE1}</t>
+        </is>
+      </c>
+    </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
         <is>
@@ -30800,24 +30798,24 @@
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>Identifier: {680FD822-C1F6-4d09-94D5-5D586C947DE1}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelServiceIdentifier</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelTicket</t>
         </is>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>Travel Service Identifier</t>
+          <t>Travel Ticket</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
+          <t>Comment: A Ticket that permits travel on a particular route or set of routes</t>
         </is>
       </c>
     </row>
@@ -30834,7 +30832,7 @@
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>Comment: A Ticket that permits travel on a particular route or set of routes</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#associatedCarrier</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30849,7 @@
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#associatedCarrier</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#issuingAgency</t>
         </is>
       </c>
     </row>
@@ -30868,7 +30866,7 @@
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#issuingAgency</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#ticketArrivalLocation</t>
         </is>
       </c>
     </row>
@@ -30885,7 +30883,7 @@
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#ticketArrivalLocation</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#ticketDepartureLocation</t>
         </is>
       </c>
     </row>
@@ -30902,7 +30900,7 @@
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#ticketDepartureLocation</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#validFromDate</t>
         </is>
       </c>
     </row>
@@ -30919,7 +30917,7 @@
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#validFromDate</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#validToDate</t>
         </is>
       </c>
     </row>
@@ -30936,7 +30934,7 @@
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#validToDate</t>
+          <t>Identifier: {6C669BEF-9267-4612-9F29-B28918B203F5}</t>
         </is>
       </c>
     </row>
@@ -30953,24 +30951,24 @@
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>Identifier: {6C669BEF-9267-4612-9F29-B28918B203F5}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Ticket</t>
         </is>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelTicket</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#TravelVisa</t>
         </is>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Travel Ticket</t>
+          <t>Travel Visa</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Ticket</t>
+          <t xml:space="preserve">Comment: An IdentityDocument, usually attached to a Passport, which allows a Person to remain in a Country for a set period of time. </t>
         </is>
       </c>
     </row>
@@ -30987,7 +30985,7 @@
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: An IdentityDocument, usually attached to a Passport, which allows a Person to remain in a Country for a set period of time. </t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isAuthorisedForUseWithPassport</t>
         </is>
       </c>
     </row>
@@ -31004,7 +31002,7 @@
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#isAuthorisedForUseWithPassport</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#vafNumber</t>
         </is>
       </c>
     </row>
@@ -31021,7 +31019,7 @@
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#vafNumber</t>
+          <t>Identifier: {C066EEB4-91AF-4ee6-BB02-44A49087946B}</t>
         </is>
       </c>
     </row>
@@ -31038,24 +31036,24 @@
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>Identifier: {C066EEB4-91AF-4ee6-BB02-44A49087946B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IdentityDocument</t>
         </is>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#TravelVisa</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Treaty</t>
         </is>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Travel Visa</t>
+          <t>Treaty</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#IdentityDocument</t>
+          <t>Comment: An EndToEndAgreement that is between Nations and subject to international law</t>
         </is>
       </c>
     </row>
@@ -31072,7 +31070,7 @@
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>Comment: An EndToEndAgreement that is between Nations and subject to international law</t>
+          <t>Identifier: {59599C4B-F3DE-49a0-B76F-BE4CB1293CBA}</t>
         </is>
       </c>
     </row>
@@ -31089,24 +31087,24 @@
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>Identifier: {59599C4B-F3DE-49a0-B76F-BE4CB1293CBA}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalAgreement</t>
         </is>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Treaty</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#UN_LOCODE</t>
         </is>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>Treaty</t>
+          <t>UN_LOCODE</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PoliticalAgreement</t>
+          <t>Comment: A GeoIdentity that is a United Nations Code for Trade and Transport Locations</t>
         </is>
       </c>
     </row>
@@ -31123,7 +31121,7 @@
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>Comment: A GeoIdentity that is a United Nations Code for Trade and Transport Locations</t>
+          <t>Identifier: {AEA785BB-B625-41aa-8738-FB0F3726A281}</t>
         </is>
       </c>
     </row>
@@ -31140,24 +31138,24 @@
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>Identifier: {AEA785BB-B625-41aa-8738-FB0F3726A281}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
         </is>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#UN_LOCODE</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#URL</t>
         </is>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>UN_LOCODE</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
+          <t>Comment: An Identifier for a WebResource</t>
         </is>
       </c>
     </row>
@@ -31174,7 +31172,7 @@
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>Comment: An Identifier for a WebResource</t>
+          <t>Identifier: {C23AB49C-0734-45b7-A383-8EEA305CDBE4}</t>
         </is>
       </c>
     </row>
@@ -31191,24 +31189,24 @@
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>Identifier: {C23AB49C-0734-45b7-A383-8EEA305CDBE4}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#URL</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#UnitOfMeasure</t>
         </is>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Unit Of Measure</t>
         </is>
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
+          <t>Comment: A ClassOfMeasureValue that is used to quantify a Measure on a standard scale</t>
         </is>
       </c>
     </row>
@@ -31225,7 +31223,7 @@
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>Comment: A ClassOfMeasureValue that is used to quantify a Measure on a standard scale</t>
+          <t>Identifier: {9F2DE0F4-58B1-46b7-B25A-545D765381A8}</t>
         </is>
       </c>
     </row>
@@ -31242,7 +31240,7 @@
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>Identifier: {9F2DE0F4-58B1-46b7-B25A-545D765381A8}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#measureUnit</t>
         </is>
       </c>
     </row>
@@ -31259,24 +31257,24 @@
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#measureUnit</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ClassOfMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#UnitOfMeasure</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#UpdateAccount</t>
         </is>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Unit Of Measure</t>
+          <t>Update Account</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ClassOfMeasureValue</t>
+          <t>Comment: An AccountAdminEvent where an Account is modified</t>
         </is>
       </c>
     </row>
@@ -31293,7 +31291,7 @@
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>Comment: An AccountAdminEvent where an Account is modified</t>
+          <t>Identifier: {E2D19BE1-B1BF-4e0b-8D44-AFFD739756BA}</t>
         </is>
       </c>
     </row>
@@ -31310,24 +31308,25 @@
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>Identifier: {E2D19BE1-B1BF-4e0b-8D44-AFFD739756BA}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AccountAdminEvent</t>
         </is>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#UpdateAccount</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Username</t>
         </is>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>Update Account</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AccountAdminEvent</t>
+          <t>Comment: The Identity for an account registered with a computer-network-based service e.g. the internet.
+An email address can be used as an online identifier for a specific domain (like Facebook). Where this is the case it can be considered to be both an instance of an email address and an instance of a username for an online identity.</t>
         </is>
       </c>
     </row>
@@ -31344,8 +31343,7 @@
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>Comment: The Identity for an account registered with a computer-network-based service e.g. the internet.
-An email address can be used as an online identifier for a specific domain (like Facebook). Where this is the case it can be considered to be both an instance of an email address and an instance of a username for an online identity.</t>
+          <t>Identifier: {9D703CE2-DED0-4aba-BE21-474781670297}</t>
         </is>
       </c>
     </row>
@@ -31362,39 +31360,22 @@
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>Identifier: {9D703CE2-DED0-4aba-BE21-474781670297}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Username</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#UsuallyParked</t>
         </is>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>Username</t>
+          <t>Usually Parked</t>
         </is>
       </c>
       <c r="C1807" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
-        </is>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="A1808" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#UsuallyParked</t>
-        </is>
-      </c>
-      <c r="B1808" t="inlineStr">
-        <is>
-          <t>Usually Parked</t>
-        </is>
-      </c>
-      <c r="C1808" t="inlineStr">
         <is>
           <t>Comment: A temporal state of a Vehicle which is the fusion of all its Parked states
 Examples:
@@ -31404,6 +31385,23 @@
         </is>
       </c>
     </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#UsuallyParked</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>Usually Parked</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Identifier: {FCE0D994-4838-48fa-A274-57DB092A2960}</t>
+        </is>
+      </c>
+    </row>
     <row r="1809">
       <c r="A1809" t="inlineStr">
         <is>
@@ -31417,7 +31415,7 @@
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>Identifier: {FCE0D994-4838-48fa-A274-57DB092A2960}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#DiscontinuousState</t>
         </is>
       </c>
     </row>
@@ -31434,24 +31432,24 @@
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#DiscontinuousState</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
         </is>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#UsuallyParked</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInAmperes</t>
         </is>
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Usually Parked</t>
+          <t>Value In Amperes</t>
         </is>
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
+          <t>Comment: A StandardMeasureValue for ElectricCurrent in amperes</t>
         </is>
       </c>
     </row>
@@ -31468,7 +31466,7 @@
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for ElectricCurrent in amperes</t>
+          <t>Identifier: {0C682BA6-23AB-459c-B8FF-A114AA27650B}</t>
         </is>
       </c>
     </row>
@@ -31485,24 +31483,24 @@
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>Identifier: {0C682BA6-23AB-459c-B8FF-A114AA27650B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1814">
       <c r="A1814" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInAmperes</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInCandela</t>
         </is>
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Value In Amperes</t>
+          <t>Value In Candela</t>
         </is>
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for LuminousIntensity in candela</t>
         </is>
       </c>
     </row>
@@ -31519,7 +31517,7 @@
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for LuminousIntensity in candela</t>
+          <t>Identifier: {391F91E4-768F-406c-A344-CC3331ABE2AC}</t>
         </is>
       </c>
     </row>
@@ -31536,24 +31534,24 @@
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>Identifier: {391F91E4-768F-406c-A344-CC3331ABE2AC}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1817">
       <c r="A1817" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInCandela</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInKelvin</t>
         </is>
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>Value In Candela</t>
+          <t>Value In Kelvin</t>
         </is>
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for Temperature in kelvin</t>
         </is>
       </c>
     </row>
@@ -31570,7 +31568,7 @@
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for Temperature in kelvin</t>
+          <t>Identifier: {32097C4D-A0FB-4024-BDB8-8E899DDCF217}</t>
         </is>
       </c>
     </row>
@@ -31587,24 +31585,24 @@
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>Identifier: {32097C4D-A0FB-4024-BDB8-8E899DDCF217}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInKelvin</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInKilograms</t>
         </is>
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>Value In Kelvin</t>
+          <t>Value In Kilograms</t>
         </is>
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for Mass in kilograms</t>
         </is>
       </c>
     </row>
@@ -31621,7 +31619,7 @@
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for Mass in kilograms</t>
+          <t>Identifier: {E7A9BC2D-85E2-4999-90DC-B76C9CB57C42}</t>
         </is>
       </c>
     </row>
@@ -31638,24 +31636,24 @@
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>Identifier: {E7A9BC2D-85E2-4999-90DC-B76C9CB57C42}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInKilograms</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInMetres</t>
         </is>
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Value In Kilograms</t>
+          <t>Value In Metres</t>
         </is>
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for Length in metres</t>
         </is>
       </c>
     </row>
@@ -31672,7 +31670,7 @@
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for Length in metres</t>
+          <t>Identifier: {C8D4C3CB-16C2-44a7-B709-35CEBF219BF0}</t>
         </is>
       </c>
     </row>
@@ -31689,24 +31687,24 @@
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>Identifier: {C8D4C3CB-16C2-44a7-B709-35CEBF219BF0}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInMetres</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInMoles</t>
         </is>
       </c>
       <c r="B1826" t="inlineStr">
         <is>
-          <t>Value In Metres</t>
+          <t>Value In Moles</t>
         </is>
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for AmountOfSubstance in moles</t>
         </is>
       </c>
     </row>
@@ -31723,7 +31721,7 @@
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for AmountOfSubstance in moles</t>
+          <t>Identifier: {943CA047-F259-4181-BF04-F6D54065AAD4}</t>
         </is>
       </c>
     </row>
@@ -31740,24 +31738,24 @@
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>Identifier: {943CA047-F259-4181-BF04-F6D54065AAD4}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInMoles</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#ValueInSeconds</t>
         </is>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Value In Moles</t>
+          <t>Value In Seconds</t>
         </is>
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: A StandardMeasureValue for Duration in seconds</t>
         </is>
       </c>
     </row>
@@ -31774,7 +31772,7 @@
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>Comment: A StandardMeasureValue for Duration in seconds</t>
+          <t>Identifier: {E485D394-B9D7-40b6-BD44-E5970B2118BD}</t>
         </is>
       </c>
     </row>
@@ -31791,24 +31789,24 @@
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>Identifier: {E485D394-B9D7-40b6-BD44-E5970B2118BD}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
         </is>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#ValueInSeconds</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Vehicle</t>
         </is>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Value In Seconds</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#StandardMeasureValue</t>
+          <t>Comment: An Asset that is a means of transportation – e.g. car, aircraft, ship.</t>
         </is>
       </c>
     </row>
@@ -31825,7 +31823,7 @@
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>Comment: An Asset that is a means of transportation – e.g. car, aircraft, ship.</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#countryOfRegistration</t>
         </is>
       </c>
     </row>
@@ -31842,7 +31840,7 @@
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#countryOfRegistration</t>
+          <t>Identifier: {3B916F09-F3F4-43e9-9C84-99009C685396}</t>
         </is>
       </c>
     </row>
@@ -31859,7 +31857,7 @@
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>Identifier: {3B916F09-F3F4-43e9-9C84-99009C685396}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Device</t>
         </is>
       </c>
     </row>
@@ -31876,24 +31874,25 @@
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Device</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
         </is>
       </c>
     </row>
     <row r="1837">
       <c r="A1837" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Vehicle</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleController</t>
         </is>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Vehicle Controller</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
+          <t>Comment: A PersonInTransit where the Person is in control of the Transit
+e.g. driver of a car, pilot of plane, captain of a ship</t>
         </is>
       </c>
     </row>
@@ -31910,8 +31909,7 @@
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>Comment: A PersonInTransit where the Person is in control of the Transit
-e.g. driver of a car, pilot of plane, captain of a ship</t>
+          <t>Identifier: {93A816A9-EB7B-4250-8A1A-8919488029A7}</t>
         </is>
       </c>
     </row>
@@ -31928,39 +31926,22 @@
       </c>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>Identifier: {93A816A9-EB7B-4250-8A1A-8919488029A7}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonInTransit</t>
         </is>
       </c>
     </row>
     <row r="1840">
       <c r="A1840" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleController</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleIdentificationNumber</t>
         </is>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Vehicle Controller</t>
+          <t>Vehicle Identification Number</t>
         </is>
       </c>
       <c r="C1840" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonInTransit</t>
-        </is>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleIdentificationNumber</t>
-        </is>
-      </c>
-      <c r="B1841" t="inlineStr">
-        <is>
-          <t>Vehicle Identification Number</t>
-        </is>
-      </c>
-      <c r="C1841" t="inlineStr">
         <is>
           <t>Comment: VIN – Vehicle Identification Number.
 For road vehicles this is often directly referred to as the VIN, but this can also be applied in a generic fashion to other vehicle types.
@@ -31968,6 +31949,23 @@
         </is>
       </c>
     </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleIdentificationNumber</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>Vehicle Identification Number</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Identifier: {AC9AB7B0-6C38-4b08-B2B9-CAA8486F0F4B}</t>
+        </is>
+      </c>
+    </row>
     <row r="1842">
       <c r="A1842" t="inlineStr">
         <is>
@@ -31981,39 +31979,22 @@
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>Identifier: {AC9AB7B0-6C38-4b08-B2B9-CAA8486F0F4B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleIdentificationNumber</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleName</t>
         </is>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
-          <t>Vehicle Identification Number</t>
+          <t>Vehicle Name</t>
         </is>
       </c>
       <c r="C1843" t="inlineStr">
-        <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
-        </is>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleName</t>
-        </is>
-      </c>
-      <c r="B1844" t="inlineStr">
-        <is>
-          <t>Vehicle Name</t>
-        </is>
-      </c>
-      <c r="C1844" t="inlineStr">
         <is>
           <t>Comment: The Name of the respective Vehicle (if applicable) – often this only applies to ships/boats.
 Examples:
@@ -32022,6 +32003,23 @@
         </is>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleName</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>Vehicle Name</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Identifier: {9D24B4BE-2AD4-42d6-A906-8F6EFDA23EC5}</t>
+        </is>
+      </c>
+    </row>
     <row r="1845">
       <c r="A1845" t="inlineStr">
         <is>
@@ -32035,24 +32033,24 @@
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>Identifier: {9D24B4BE-2AD4-42d6-A906-8F6EFDA23EC5}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleName</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
         </is>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
-          <t>Vehicle Name</t>
+          <t>Vehicle State</t>
         </is>
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
+          <t>Comment: A temporal state of a Vehicle</t>
         </is>
       </c>
     </row>
@@ -32069,7 +32067,7 @@
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>Comment: A temporal state of a Vehicle</t>
+          <t>Identifier: {D3275233-7381-483e-B2D2-77F13D73A52E}</t>
         </is>
       </c>
     </row>
@@ -32086,24 +32084,24 @@
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>Identifier: {D3275233-7381-483e-B2D2-77F13D73A52E}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AssetState</t>
         </is>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleState</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VehicleUsed</t>
         </is>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>Vehicle State</t>
+          <t>Vehicle Used</t>
         </is>
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AssetState</t>
+          <t>Comment: An EventParticipant in which a Vehicle is used to transport Entities</t>
         </is>
       </c>
     </row>
@@ -32120,7 +32118,7 @@
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant in which a Vehicle is used to transport Entities</t>
+          <t>Identifier: {2202F5B0-DF49-4db5-A8F9-31FC2CC89005}</t>
         </is>
       </c>
     </row>
@@ -32137,24 +32135,24 @@
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>Identifier: {2202F5B0-DF49-4db5-A8F9-31FC2CC89005}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VehicleUsed</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VersionNumber</t>
         </is>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>Vehicle Used</t>
+          <t>Version Number</t>
         </is>
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: The number or code that identifies the version of something.</t>
         </is>
       </c>
     </row>
@@ -32171,7 +32169,7 @@
       </c>
       <c r="C1853" t="inlineStr">
         <is>
-          <t>Comment: The number or code that identifies the version of something.</t>
+          <t>Identifier: {E4C44F5B-5D57-4283-B985-5A2DA87BF212}</t>
         </is>
       </c>
     </row>
@@ -32188,24 +32186,24 @@
       </c>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>Identifier: {E4C44F5B-5D57-4283-B985-5A2DA87BF212}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VersionNumber</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VersionOfDocument</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Version Number</t>
+          <t>Version Of Document</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Identifier</t>
+          <t>Comment: A WorkOfDocumentation and a TimeBoundedClass that is a versionOf a WorkOfDocumentation</t>
         </is>
       </c>
     </row>
@@ -32222,7 +32220,7 @@
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>Comment: A WorkOfDocumentation and a TimeBoundedClass that is a versionOf a WorkOfDocumentation</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#versionOf</t>
         </is>
       </c>
     </row>
@@ -32239,7 +32237,7 @@
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#versionOf</t>
+          <t>Identifier: {ADB16761-4981-4476-BC53-2843587D1C02}</t>
         </is>
       </c>
     </row>
@@ -32256,7 +32254,7 @@
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>Identifier: {ADB16761-4981-4476-BC53-2843587D1C02}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
         </is>
       </c>
     </row>
@@ -32273,24 +32271,24 @@
       </c>
       <c r="C1859" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TimeBoundedClass</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#WorkOfDocumentation</t>
         </is>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VersionOfDocument</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Victim</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Version Of Document</t>
+          <t>Victim</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#WorkOfDocumentation</t>
+          <t>Comment: An EventParticipant where a ResponsibleActor is the victim of a CriminalActivity</t>
         </is>
       </c>
     </row>
@@ -32307,7 +32305,7 @@
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>Comment: An EventParticipant where a ResponsibleActor is the victim of a CriminalActivity</t>
+          <t>Identifier: {3B47FCD0-E7D1-4b2b-BC07-C96D3F07ABC3}</t>
         </is>
       </c>
     </row>
@@ -32324,24 +32322,24 @@
       </c>
       <c r="C1862" t="inlineStr">
         <is>
-          <t>Identifier: {3B47FCD0-E7D1-4b2b-BC07-C96D3F07ABC3}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Victim</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VideoConference</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Victim</t>
+          <t>Video Conference</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: A TeleConference where parties communicate over video (with audio)</t>
         </is>
       </c>
     </row>
@@ -32358,7 +32356,7 @@
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>Comment: A TeleConference where parties communicate over video (with audio)</t>
+          <t>Identifier: {1ED09A3D-7EE9-4b7a-8F0B-8590023C9F81}</t>
         </is>
       </c>
     </row>
@@ -32375,24 +32373,25 @@
       </c>
       <c r="C1865" t="inlineStr">
         <is>
-          <t>Identifier: {1ED09A3D-7EE9-4b7a-8F0B-8590023C9F81}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TeleConference</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VideoConference</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Visiting</t>
         </is>
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>Video Conference</t>
+          <t>Visiting</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TeleConference</t>
+          <t xml:space="preserve">Comment: A temporal state of a ResponsibleActor
+Note:  this is the superclass of ResponsibleActor (the whole life person or organisation) because the whole-life state is just a special case of a ResponsibleActorState. This pattern is true for all states. </t>
         </is>
       </c>
     </row>
@@ -32409,8 +32408,7 @@
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: A temporal state of a ResponsibleActor
-Note:  this is the superclass of ResponsibleActor (the whole life person or organisation) because the whole-life state is just a special case of a ResponsibleActorState. This pattern is true for all states. </t>
+          <t>Identifier: {EB558A61-8725-40d0-B87D-D6AA1FC27C89}</t>
         </is>
       </c>
     </row>
@@ -32427,7 +32425,7 @@
       </c>
       <c r="C1868" t="inlineStr">
         <is>
-          <t>Identifier: {EB558A61-8725-40d0-B87D-D6AA1FC27C89}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
@@ -32444,24 +32442,24 @@
       </c>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ResponsibleActorState</t>
         </is>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Visiting</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VoiceCall</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Visiting</t>
+          <t>Voice Call</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ResponsibleActorState</t>
+          <t>Comment: An InteractiveCommunication by voice</t>
         </is>
       </c>
     </row>
@@ -32478,7 +32476,7 @@
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>Comment: An InteractiveCommunication by voice</t>
+          <t>Identifier: {F186E39F-A251-4b84-85E9-577C7290F6D9}</t>
         </is>
       </c>
     </row>
@@ -32495,24 +32493,24 @@
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>Identifier: {F186E39F-A251-4b84-85E9-577C7290F6D9}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#InteractiveCommunication</t>
         </is>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VoiceCall</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VoipAccount</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Voice Call</t>
+          <t>Voip Account</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#InteractiveCommunication</t>
+          <t xml:space="preserve">Comment: A TelephoneAccount where the voice communication is over IP. This may also include video communication, screen sharing, etc. </t>
         </is>
       </c>
     </row>
@@ -32529,7 +32527,7 @@
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: A TelephoneAccount where the voice communication is over IP. This may also include video communication, screen sharing, etc. </t>
+          <t>Identifier: {2DB8231F-0673-4788-AE41-3F52A3702A2B}</t>
         </is>
       </c>
     </row>
@@ -32546,7 +32544,7 @@
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>Identifier: {2DB8231F-0673-4788-AE41-3F52A3702A2B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OnlineAccount</t>
         </is>
       </c>
     </row>
@@ -32563,24 +32561,24 @@
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OnlineAccount</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TelephoneAccount</t>
         </is>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VoipAccount</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#VotingAttendee</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Voip Account</t>
+          <t>Voting Attendee</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TelephoneAccount</t>
+          <t>Comment: When a Government has voting rights at a Summit</t>
         </is>
       </c>
     </row>
@@ -32597,7 +32595,7 @@
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>Comment: When a Government has voting rights at a Summit</t>
+          <t>Identifier: {B94FF143-3681-41eb-8264-D3E85C558EFC}</t>
         </is>
       </c>
     </row>
@@ -32614,24 +32612,24 @@
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t>Identifier: {B94FF143-3681-41eb-8264-D3E85C558EFC}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#VotingAttendee</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#War</t>
         </is>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Voting Attendee</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: A Disagreement where at least one party has declared war</t>
         </is>
       </c>
     </row>
@@ -32648,7 +32646,7 @@
       </c>
       <c r="C1881" t="inlineStr">
         <is>
-          <t>Comment: A Disagreement where at least one party has declared war</t>
+          <t>Identifier: {D4F568F5-7BC4-489d-94BC-AE1305E5C0C2}</t>
         </is>
       </c>
     </row>
@@ -32665,7 +32663,7 @@
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t>Identifier: {D4F568F5-7BC4-489d-94BC-AE1305E5C0C2}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Disagreement</t>
         </is>
       </c>
     </row>
@@ -32682,24 +32680,24 @@
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Disagreement</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EndToEndActivity</t>
         </is>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#War</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Warrant</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Warrant</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EndToEndActivity</t>
+          <t>Comment: An AuthorisationDocument that provides legal permission, usually for something that would be considered illegal or intrusive otherwise</t>
         </is>
       </c>
     </row>
@@ -32716,7 +32714,7 @@
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t>Comment: An AuthorisationDocument that provides legal permission, usually for something that would be considered illegal or intrusive otherwise</t>
+          <t>Identifier: {4CAD884A-1EA7-473d-9881-8B76EBF8526F}</t>
         </is>
       </c>
     </row>
@@ -32733,24 +32731,24 @@
       </c>
       <c r="C1886" t="inlineStr">
         <is>
-          <t>Identifier: {4CAD884A-1EA7-473d-9881-8B76EBF8526F}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AuthorisationDocument</t>
         </is>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Warrant</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Warrantry</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>Warrant</t>
+          <t>Warrantry</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#AuthorisationDocument</t>
+          <t xml:space="preserve">Comment: An EndToEndAuthorisation where the process involves legal warrants. </t>
         </is>
       </c>
     </row>
@@ -32767,7 +32765,7 @@
       </c>
       <c r="C1888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comment: An EndToEndAuthorisation where the process involves legal warrants. </t>
+          <t>Identifier: {CA2023C6-1677-4d24-A1E6-22BC4D595E6F}</t>
         </is>
       </c>
     </row>
@@ -32784,24 +32782,24 @@
       </c>
       <c r="C1889" t="inlineStr">
         <is>
-          <t>Identifier: {CA2023C6-1677-4d24-A1E6-22BC4D595E6F}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EndToEndAuthorisation</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Warrantry</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WeaponLocation</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>Warrantry</t>
+          <t>Weapon Location</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EndToEndAuthorisation</t>
+          <t>Comment: Relates an MilitaryAttack to the location of the attacking weapon system</t>
         </is>
       </c>
     </row>
@@ -32818,7 +32816,7 @@
       </c>
       <c r="C1891" t="inlineStr">
         <is>
-          <t>Comment: Relates an MilitaryAttack to the location of the attacking weapon system</t>
+          <t>Identifier: {B513F0D8-E527-4548-8453-D905775E3A4F}</t>
         </is>
       </c>
     </row>
@@ -32835,24 +32833,24 @@
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>Identifier: {B513F0D8-E527-4548-8453-D905775E3A4F}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
         </is>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WeaponLocation</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WebResource</t>
         </is>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Weapon Location</t>
+          <t>Web Resource</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#EventParticipant</t>
+          <t>Comment: Any http presence on the web</t>
         </is>
       </c>
     </row>
@@ -32869,7 +32867,7 @@
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t>Comment: Any http presence on the web</t>
+          <t>Identifier: {46D508B4-F1CC-45d7-9E4B-BA8A3C88D82A}</t>
         </is>
       </c>
     </row>
@@ -32886,7 +32884,7 @@
       </c>
       <c r="C1895" t="inlineStr">
         <is>
-          <t>Identifier: {46D508B4-F1CC-45d7-9E4B-BA8A3C88D82A}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Entity</t>
         </is>
       </c>
     </row>
@@ -32903,24 +32901,24 @@
       </c>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#Entity</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#WebResourceState</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WebResource</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WebResourceState</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>Web Resource</t>
+          <t>Web Resource State</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#WebResourceState</t>
+          <t>Comment: A temporal state of an WebResource</t>
         </is>
       </c>
     </row>
@@ -32937,7 +32935,7 @@
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>Comment: A temporal state of an WebResource</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hostedOn</t>
         </is>
       </c>
     </row>
@@ -32954,7 +32952,7 @@
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hostedOn</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#informationContent</t>
         </is>
       </c>
     </row>
@@ -32971,7 +32969,7 @@
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#informationContent</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#uriScheme</t>
         </is>
       </c>
     </row>
@@ -32988,7 +32986,7 @@
       </c>
       <c r="C1901" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#uriScheme</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#uriSchemeName</t>
         </is>
       </c>
     </row>
@@ -33005,7 +33003,7 @@
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#uriSchemeName</t>
+          <t>Identifier: {3BE61CCF-DCD0-411d-9D43-5DEABF8381F2}</t>
         </is>
       </c>
     </row>
@@ -33022,24 +33020,24 @@
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>Identifier: {3BE61CCF-DCD0-411d-9D43-5DEABF8381F2}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
         </is>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WebResourceState</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Webpage</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>Web Resource State</t>
+          <t>Webpage</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#State</t>
+          <t>Comment: An OnlineArtefact that is a page on the web.</t>
         </is>
       </c>
     </row>
@@ -33056,7 +33054,7 @@
       </c>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Comment: An OnlineArtefact that is a page on the web.</t>
+          <t>Identifier: {79098C74-E063-4c45-886D-D0B88A48E954}</t>
         </is>
       </c>
     </row>
@@ -33073,7 +33071,7 @@
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>Identifier: {79098C74-E063-4c45-886D-D0B88A48E954}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#cookieOriginSite</t>
         </is>
       </c>
     </row>
@@ -33090,24 +33088,25 @@
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#cookieOriginSite</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OnlineArtefact</t>
         </is>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Webpage</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#What3words</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>Webpage</t>
+          <t>What3words</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#OnlineArtefact</t>
+          <t>Comment: A GeoIdentity that is a what3words Location specifier
+(see what3words.com)</t>
         </is>
       </c>
     </row>
@@ -33124,8 +33123,7 @@
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>Comment: A GeoIdentity that is a what3words Location specifier
-(see what3words.com)</t>
+          <t>Identifier: {B2262900-BF01-4691-8DE1-46A726A6D1CB}</t>
         </is>
       </c>
     </row>
@@ -33142,24 +33140,24 @@
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>Identifier: {B2262900-BF01-4691-8DE1-46A726A6D1CB}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
         </is>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#What3words</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WinningCandidate</t>
         </is>
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>What3words</t>
+          <t>Winning Candidate</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#GeoIdentity</t>
+          <t>Comment: The Person who won the Election</t>
         </is>
       </c>
     </row>
@@ -33176,7 +33174,7 @@
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>Comment: The Person who won the Election</t>
+          <t>Identifier: {9FC35E2C-3D28-4f21-8FF7-3BAA51860958}</t>
         </is>
       </c>
     </row>
@@ -33193,24 +33191,24 @@
       </c>
       <c r="C1913" t="inlineStr">
         <is>
-          <t>Identifier: {9FC35E2C-3D28-4f21-8FF7-3BAA51860958}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ElectoralCandidate</t>
         </is>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WinningCandidate</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WithdrawFromSale</t>
         </is>
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>Winning Candidate</t>
+          <t>Withdraw From Sale</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ElectoralCandidate</t>
+          <t>Comment: A TradeEvent where a type of entity is withdrawn from sale</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33225,7 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>Comment: A TradeEvent where a type of entity is withdrawn from sale</t>
+          <t>Identifier: {9416F72A-9BF9-4c99-839C-76905F02B63B}</t>
         </is>
       </c>
     </row>
@@ -33244,24 +33242,24 @@
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Identifier: {9416F72A-9BF9-4c99-839C-76905F02B63B}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TradeEvent</t>
         </is>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WithdrawFromSale</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#Witness</t>
         </is>
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>Withdraw From Sale</t>
+          <t>Witness</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#TradeEvent</t>
+          <t>Comment: A Person's role as a witness in a trial</t>
         </is>
       </c>
     </row>
@@ -33278,7 +33276,7 @@
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>Comment: A Person's role as a witness in a trial</t>
+          <t>Identifier: {9C9ED058-4BB5-43d0-A311-FF7A532ED6D6}</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33293,7 @@
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Identifier: {9C9ED058-4BB5-43d0-A311-FF7A532ED6D6}</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ActiveEventParticipant</t>
         </is>
       </c>
     </row>
@@ -33312,24 +33310,24 @@
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ActiveEventParticipant</t>
+          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonState</t>
         </is>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#Witness</t>
+          <t>http://ies.data.gov.uk/ontology/ies4#WorkOfDocumentation</t>
         </is>
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>Witness</t>
+          <t>Work Of Documentation</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#PersonState</t>
+          <t>Comment: A Representation that is the general case of a document - i.e. "War and Peace" as opposed to "My copy of War and Peace"</t>
         </is>
       </c>
     </row>
@@ -33346,7 +33344,7 @@
       </c>
       <c r="C1922" t="inlineStr">
         <is>
-          <t>Comment: A Representation that is the general case of a document - i.e. "War and Peace" as opposed to "My copy of War and Peace"</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#format</t>
         </is>
       </c>
     </row>
@@ -33363,7 +33361,7 @@
       </c>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#format</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasAuthor</t>
         </is>
       </c>
     </row>
@@ -33380,7 +33378,7 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasAuthor</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasPublisher</t>
         </is>
       </c>
     </row>
@@ -33397,7 +33395,7 @@
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#hasPublisher</t>
+          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#publicationDate</t>
         </is>
       </c>
     </row>
@@ -33414,7 +33412,7 @@
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Domain of: http://ies.data.gov.uk/ontology/ies4#publicationDate</t>
+          <t>Identifier: {F0B48978-D4E4-45a4-8238-091A5B714D82}</t>
         </is>
       </c>
     </row>
@@ -33431,7 +33429,7 @@
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Identifier: {F0B48978-D4E4-45a4-8238-091A5B714D82}</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#aCopyOf</t>
         </is>
       </c>
     </row>
@@ -33448,7 +33446,7 @@
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#aCopyOf</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#documentedBy</t>
         </is>
       </c>
     </row>
@@ -33465,7 +33463,7 @@
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#documentedBy</t>
+          <t>Range of: http://ies.data.gov.uk/ontology/ies4#versionOf</t>
         </is>
       </c>
     </row>
@@ -33481,23 +33479,6 @@
         </is>
       </c>
       <c r="C1930" t="inlineStr">
-        <is>
-          <t>Range of: http://ies.data.gov.uk/ontology/ies4#versionOf</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>http://ies.data.gov.uk/ontology/ies4#WorkOfDocumentation</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Work Of Documentation</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr">
         <is>
           <t>SubClassOf: http://ies.data.gov.uk/ontology/ies4#ClassOfIndividualDocument</t>
         </is>
